--- a/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
+++ b/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1600" windowWidth="27520" windowHeight="12740" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="1600" windowWidth="27520" windowHeight="12740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>One of mM, uM, RatioT1, or RatioCs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,77 +58,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HumanReadable</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The openBIS experiment identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Strain Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of Value, Mean, Median, Std, Var, Error, or Iqr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phosphate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phosphate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CompoundID</t>
-  </si>
-  <si>
-    <t>HumanReadable</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The openBIS experiment identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Strain Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of Value, Mean, Median, Std, Var, Error, or Iqr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHEBI:15521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHEBI:18311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phosphate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phosphate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strain1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -554,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -578,22 +575,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -612,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -620,21 +617,21 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -642,10 +639,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -669,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -682,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
       <c r="C1">
         <v>-703</v>
@@ -759,10 +756,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>9.5157063E-2</v>
@@ -836,10 +833,10 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>5.9749696999999997E-2</v>

--- a/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
+++ b/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1600" windowWidth="27520" windowHeight="12740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34320" windowHeight="22740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -22,115 +22,114 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
+    <t>One of Lin, Log2, Log10, or Ln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of CE, ES, ME, CY, or NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timepoint Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of EX, IN, or SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HumanReadable</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The openBIS experiment identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Strain Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of Value, Mean, Median, Std, Var, Error, or Iqr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phosphate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phosphate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompoundID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>One of mM, uM, RatioT1, or RatioCs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of Lin, Log2, Log10, or Ln</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of CE, ES, ME, CY, or NC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timepoint Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of EX, IN, or SI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HumanReadable</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The openBIS experiment identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Strain Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of Value, Mean, Median, Std, Var, Error, or Iqr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phosphate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phosphate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strain1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompoundID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -564,91 +563,92 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20">
       <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -679,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>-703</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>9.5157063E-2</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>5.9749696999999997E-2</v>
@@ -909,6 +909,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
+++ b/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="34320" windowHeight="22740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
     <sheet name="openbis-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -20,81 +20,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+  <si>
+    <t>One of CE, ES, ME, CY, or NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timepoint Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of EX, IN, or SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompoundID</t>
+  </si>
+  <si>
+    <t>HumanReadable</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The openBIS experiment identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEBI:15521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEBI:18311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phosphate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phosphate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>One of Lin, Log2, Log10, or Ln</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>One of CE, ES, ME, CY, or NC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timepoint Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of EX, IN, or SI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HumanReadable</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Header Format</t>
+  </si>
+  <si>
+    <t>METABOL HYBRID</t>
+  </si>
+  <si>
+    <t>Must be METABOL HYBRID</t>
+  </si>
+  <si>
+    <t>Start Data Row</t>
+  </si>
+  <si>
+    <t>Start Data Col</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>The first row with data — the one that contains the column headers</t>
+  </si>
+  <si>
+    <t>The first column with data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>/TEST/TEST/TEST</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Lin</t>
   </si>
   <si>
     <t>Strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis 1</t>
+  </si>
+  <si>
+    <t>JJS-MGP192</t>
   </si>
   <si>
     <t>Value Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Value Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The openBIS experiment identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Strain Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of Value, Mean, Median, Std, Var, Error, or Iqr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phosphate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phosphate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>RatioCs</t>
+  </si>
+  <si>
+    <t>mM</t>
   </si>
   <si>
     <t>foo</t>
@@ -106,37 +164,13 @@
   </si>
   <si>
     <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompoundID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of mM, uM, RatioT1, or RatioCs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -170,16 +204,44 @@
       <color indexed="23"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -189,7 +251,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -201,15 +263,59 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -219,12 +325,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -547,115 +688,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -663,257 +834,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="16">
+      <c r="B1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="16">
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="16">
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="14" customFormat="1">
+      <c r="A4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1">
-        <v>-703</v>
-      </c>
-      <c r="D1">
-        <v>-603</v>
-      </c>
-      <c r="E1">
-        <v>-499</v>
-      </c>
-      <c r="F1">
-        <v>7</v>
-      </c>
-      <c r="G1">
-        <v>39</v>
-      </c>
-      <c r="H1">
-        <v>81</v>
-      </c>
-      <c r="I1">
-        <v>121</v>
-      </c>
-      <c r="J1">
-        <v>181</v>
-      </c>
-      <c r="K1">
-        <v>301</v>
-      </c>
-      <c r="L1">
-        <v>423</v>
-      </c>
-      <c r="M1">
-        <v>601</v>
-      </c>
-      <c r="N1">
-        <v>900</v>
-      </c>
-      <c r="O1">
-        <v>1201</v>
-      </c>
-      <c r="P1">
-        <v>1501</v>
-      </c>
-      <c r="Q1">
-        <v>1801</v>
-      </c>
-      <c r="R1">
-        <v>2402</v>
-      </c>
-      <c r="S1">
-        <v>3001</v>
-      </c>
-      <c r="T1">
-        <v>3602</v>
-      </c>
-      <c r="U1">
-        <v>4500</v>
-      </c>
-      <c r="V1">
-        <v>5401</v>
-      </c>
-      <c r="W1">
-        <v>6300</v>
-      </c>
-      <c r="X1">
-        <v>7203</v>
-      </c>
-      <c r="Y1">
-        <v>9002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>9.5157063E-2</v>
       </c>
-      <c r="D2">
+      <c r="D5">
         <v>8.3137932999999997E-2</v>
       </c>
-      <c r="E2">
+      <c r="E5">
         <v>6.2573448000000004E-2</v>
       </c>
-      <c r="F2">
+      <c r="F5">
         <v>8.2451096000000001E-2</v>
       </c>
-      <c r="G2">
+      <c r="G5">
         <v>9.1171870000000002E-2</v>
       </c>
-      <c r="H2">
+      <c r="H5">
         <v>8.4828632000000001E-2</v>
       </c>
-      <c r="I2">
+      <c r="I5">
         <v>7.4527912000000002E-2</v>
       </c>
-      <c r="J2">
+      <c r="J5">
         <v>7.5622534000000005E-2</v>
       </c>
-      <c r="K2">
-        <v>8.9954988999999999E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.111268832</v>
-      </c>
-      <c r="M2">
-        <v>0.143886653</v>
-      </c>
-      <c r="N2">
-        <v>0.161084959</v>
-      </c>
-      <c r="O2">
-        <v>0.14887666299999999</v>
-      </c>
-      <c r="P2">
-        <v>0.12487948</v>
-      </c>
-      <c r="Q2">
-        <v>0.105991786</v>
-      </c>
-      <c r="R2">
-        <v>0.112084432</v>
-      </c>
-      <c r="S2">
-        <v>0.14448775599999999</v>
-      </c>
-      <c r="T2">
-        <v>0.191566713</v>
-      </c>
-      <c r="U2">
-        <v>0.23319833800000001</v>
-      </c>
-      <c r="V2">
-        <v>0.282084801</v>
-      </c>
-      <c r="W2">
-        <v>0.24470845199999999</v>
-      </c>
-      <c r="X2">
-        <v>0.19135688300000001</v>
-      </c>
-      <c r="Y2">
-        <v>0.218277425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>5.9749696999999997E-2</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>4.4605605999999999E-2</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>3.1460909000000002E-2</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>3.7022841000000001E-2</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>3.4133266000000002E-2</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>3.2098408000000002E-2</v>
       </c>
-      <c r="I3">
+      <c r="I6">
         <v>3.1838747000000001E-2</v>
       </c>
-      <c r="J3">
+      <c r="J6">
         <v>3.1009312000000001E-2</v>
       </c>
-      <c r="K3">
-        <v>2.9923273E-2</v>
-      </c>
-      <c r="L3">
-        <v>2.9355011E-2</v>
-      </c>
-      <c r="M3">
-        <v>2.9605382E-2</v>
-      </c>
-      <c r="N3">
-        <v>2.9400105999999999E-2</v>
-      </c>
-      <c r="O3">
-        <v>3.1750294999999998E-2</v>
-      </c>
-      <c r="P3">
-        <v>3.2402418000000002E-2</v>
-      </c>
-      <c r="Q3">
-        <v>3.4305571999999999E-2</v>
-      </c>
-      <c r="R3">
-        <v>3.6363708000000002E-2</v>
-      </c>
-      <c r="S3">
-        <v>3.8099754999999999E-2</v>
-      </c>
-      <c r="T3">
-        <v>3.8597558999999997E-2</v>
-      </c>
-      <c r="U3">
-        <v>4.1810979999999998E-2</v>
-      </c>
-      <c r="V3">
-        <v>4.7799050000000003E-2</v>
-      </c>
-      <c r="W3">
-        <v>4.9222268E-2</v>
-      </c>
-      <c r="X3">
-        <v>5.4758121999999999E-2</v>
-      </c>
-      <c r="Y3">
-        <v>7.8790759000000002E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
+++ b/eu_basynthec/sourceTest/examples/Metabolomics-BadData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22220"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>One of CE, ES, ME, CY, or NC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,9 +161,6 @@
   <si>
     <t>foo</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo</t>
   </si>
 </sst>
 </file>
@@ -791,14 +788,14 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
+      <c r="B7" s="5">
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -806,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
